--- a/ipa_2/myUtils/empty_session_df.xlsx
+++ b/ipa_2/myUtils/empty_session_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256A069-0735-488A-8A15-D0AA30E1152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28318D20-1615-4149-96B0-383F02426C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>subject_num</t>
   </si>
@@ -69,9 +69,6 @@
     <t>trial_num</t>
   </si>
   <si>
-    <t>trial_profile</t>
-  </si>
-  <si>
     <t>subject_group</t>
   </si>
   <si>
@@ -156,33 +153,6 @@
     <t>max_amazing</t>
   </si>
   <si>
-    <t>profile_goodness</t>
-  </si>
-  <si>
-    <t>profile_age</t>
-  </si>
-  <si>
-    <t>profile_happiness</t>
-  </si>
-  <si>
-    <t>profile_normality</t>
-  </si>
-  <si>
-    <t>profile_appearnce</t>
-  </si>
-  <si>
-    <t>profile_interest</t>
-  </si>
-  <si>
-    <t>profile_sainity</t>
-  </si>
-  <si>
-    <t>profile_importance</t>
-  </si>
-  <si>
-    <t>profile_amazing</t>
-  </si>
-  <si>
     <t>ideal_goodness</t>
   </si>
   <si>
@@ -315,33 +285,6 @@
     <t>ideal_intelligence</t>
   </si>
   <si>
-    <t>profile_way_of_speech</t>
-  </si>
-  <si>
-    <t>profile_socio_economic</t>
-  </si>
-  <si>
-    <t>profile_ethnicity_skin_color</t>
-  </si>
-  <si>
-    <t>profile_personality</t>
-  </si>
-  <si>
-    <t>profile_dress_propeties</t>
-  </si>
-  <si>
-    <t>profile_political_affiliation</t>
-  </si>
-  <si>
-    <t>profile_hobbies</t>
-  </si>
-  <si>
-    <t>profile_body_size</t>
-  </si>
-  <si>
-    <t>profile_intelligence</t>
-  </si>
-  <si>
     <t>start_time</t>
   </si>
   <si>
@@ -462,33 +405,6 @@
     <t>ideal_c9</t>
   </si>
   <si>
-    <t>profile_c1</t>
-  </si>
-  <si>
-    <t>profile_c2</t>
-  </si>
-  <si>
-    <t>profile_c3</t>
-  </si>
-  <si>
-    <t>profile_c4</t>
-  </si>
-  <si>
-    <t>profile_c5</t>
-  </si>
-  <si>
-    <t>profile_c6</t>
-  </si>
-  <si>
-    <t>profile_c7</t>
-  </si>
-  <si>
-    <t>profile_c8</t>
-  </si>
-  <si>
-    <t>profile_c9</t>
-  </si>
-  <si>
     <t>trial_task</t>
   </si>
   <si>
@@ -508,6 +424,174 @@
   </si>
   <si>
     <t>identification_profiles_sides</t>
+  </si>
+  <si>
+    <t>profile_left_way_of_speech</t>
+  </si>
+  <si>
+    <t>profile_left_socio_economic</t>
+  </si>
+  <si>
+    <t>profile_left_ethnicity_skin_color</t>
+  </si>
+  <si>
+    <t>profile_left_personality</t>
+  </si>
+  <si>
+    <t>profile_left_dress_propeties</t>
+  </si>
+  <si>
+    <t>profile_left_political_affiliation</t>
+  </si>
+  <si>
+    <t>profile_left_hobbies</t>
+  </si>
+  <si>
+    <t>profile_left_body_size</t>
+  </si>
+  <si>
+    <t>profile_left_intelligence</t>
+  </si>
+  <si>
+    <t>profile_left_goodness</t>
+  </si>
+  <si>
+    <t>profile_left_age</t>
+  </si>
+  <si>
+    <t>profile_left_happiness</t>
+  </si>
+  <si>
+    <t>profile_left_normality</t>
+  </si>
+  <si>
+    <t>profile_left_appearnce</t>
+  </si>
+  <si>
+    <t>profile_left_interest</t>
+  </si>
+  <si>
+    <t>profile_left_sainity</t>
+  </si>
+  <si>
+    <t>profile_left_importance</t>
+  </si>
+  <si>
+    <t>profile_left_amazing</t>
+  </si>
+  <si>
+    <t>profile_left_c1</t>
+  </si>
+  <si>
+    <t>profile_left_c2</t>
+  </si>
+  <si>
+    <t>profile_left_c3</t>
+  </si>
+  <si>
+    <t>profile_left_c4</t>
+  </si>
+  <si>
+    <t>profile_left_c5</t>
+  </si>
+  <si>
+    <t>profile_left_c6</t>
+  </si>
+  <si>
+    <t>profile_left_c7</t>
+  </si>
+  <si>
+    <t>profile_left_c8</t>
+  </si>
+  <si>
+    <t>profile_left_c9</t>
+  </si>
+  <si>
+    <t>profile_right_way_of_speech</t>
+  </si>
+  <si>
+    <t>profile_right_socio_economic</t>
+  </si>
+  <si>
+    <t>profile_right_ethnicity_skin_color</t>
+  </si>
+  <si>
+    <t>profile_right_personality</t>
+  </si>
+  <si>
+    <t>profile_right_dress_propeties</t>
+  </si>
+  <si>
+    <t>profile_right_political_affiliation</t>
+  </si>
+  <si>
+    <t>profile_right_hobbies</t>
+  </si>
+  <si>
+    <t>profile_right_body_size</t>
+  </si>
+  <si>
+    <t>profile_right_intelligence</t>
+  </si>
+  <si>
+    <t>profile_right_goodness</t>
+  </si>
+  <si>
+    <t>profile_right_age</t>
+  </si>
+  <si>
+    <t>profile_right_happiness</t>
+  </si>
+  <si>
+    <t>profile_right_normality</t>
+  </si>
+  <si>
+    <t>profile_right_appearnce</t>
+  </si>
+  <si>
+    <t>profile_right_interest</t>
+  </si>
+  <si>
+    <t>profile_right_sainity</t>
+  </si>
+  <si>
+    <t>profile_right_importance</t>
+  </si>
+  <si>
+    <t>profile_right_amazing</t>
+  </si>
+  <si>
+    <t>profile_right_c1</t>
+  </si>
+  <si>
+    <t>profile_right_c2</t>
+  </si>
+  <si>
+    <t>profile_right_c3</t>
+  </si>
+  <si>
+    <t>profile_right_c4</t>
+  </si>
+  <si>
+    <t>profile_right_c5</t>
+  </si>
+  <si>
+    <t>profile_right_c6</t>
+  </si>
+  <si>
+    <t>profile_right_c7</t>
+  </si>
+  <si>
+    <t>profile_right_c8</t>
+  </si>
+  <si>
+    <t>profile_right_c9</t>
+  </si>
+  <si>
+    <t>trial_profile_left</t>
+  </si>
+  <si>
+    <t>trial_profile_right</t>
   </si>
 </sst>
 </file>
@@ -825,43 +909,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FB1"/>
+  <dimension ref="A1:GD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="GD1" sqref="GD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:186" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -888,436 +972,520 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="S1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
       </c>
       <c r="U1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>75</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>121</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FD1" t="s">
         <v>157</v>
       </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>53</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>54</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>57</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>93</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>94</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>96</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>99</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>40</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>41</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>42</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>44</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>45</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>47</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>48</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>150</v>
+      <c r="FE1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/empty_session_df.xlsx
+++ b/ipa_2/myUtils/empty_session_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28318D20-1615-4149-96B0-383F02426C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC4329-40F5-4E31-B25D-52208BAAD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>subject_num</t>
   </si>
@@ -592,6 +592,12 @@
   </si>
   <si>
     <t>trial_profile_right</t>
+  </si>
+  <si>
+    <t>sets_order</t>
+  </si>
+  <si>
+    <t>trials_set</t>
   </si>
 </sst>
 </file>
@@ -909,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GD1"/>
+  <dimension ref="A1:GF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="GD1" sqref="GD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +934,7 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:186" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:188" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,510 +987,516 @@
         <v>9</v>
       </c>
       <c r="R1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" t="s">
         <v>126</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>123</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>184</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>185</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>129</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>87</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>92</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>93</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>94</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>21</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>22</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>23</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>24</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>25</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>26</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>27</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>95</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>96</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>97</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>98</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>99</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>100</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>101</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>102</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>103</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>66</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>67</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>68</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>69</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>70</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>71</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>72</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>73</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>74</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>30</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>31</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>32</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>33</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>34</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>35</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>36</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>37</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>38</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>104</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>105</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>106</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>107</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>108</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>109</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>110</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>111</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>112</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>113</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>75</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>76</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>77</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>78</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>79</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>80</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>81</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>82</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>39</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>40</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>41</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>42</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>43</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>44</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>45</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>46</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>47</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>114</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>115</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>116</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>117</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>118</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>119</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>120</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>121</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>122</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>130</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" t="s">
         <v>136</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>137</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>138</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>139</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>140</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" t="s">
         <v>141</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" t="s">
         <v>142</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" t="s">
         <v>143</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" t="s">
         <v>144</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ET1" t="s">
         <v>145</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EU1" t="s">
         <v>146</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EV1" t="s">
         <v>147</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" t="s">
         <v>148</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" t="s">
         <v>149</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" t="s">
         <v>150</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" t="s">
         <v>151</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" t="s">
         <v>152</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" t="s">
         <v>153</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FC1" t="s">
         <v>154</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FD1" t="s">
         <v>155</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FE1" t="s">
         <v>156</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FF1" t="s">
         <v>157</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FG1" t="s">
         <v>158</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FH1" t="s">
         <v>159</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FI1" t="s">
         <v>160</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FJ1" t="s">
         <v>161</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FK1" t="s">
         <v>162</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FL1" t="s">
         <v>163</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FM1" t="s">
         <v>164</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FN1" t="s">
         <v>165</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FO1" t="s">
         <v>166</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FP1" t="s">
         <v>167</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FQ1" t="s">
         <v>168</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FR1" t="s">
         <v>169</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FS1" t="s">
         <v>170</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FT1" t="s">
         <v>171</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FU1" t="s">
         <v>172</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FV1" t="s">
         <v>173</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FW1" t="s">
         <v>174</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FX1" t="s">
         <v>175</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FY1" t="s">
         <v>176</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FZ1" t="s">
         <v>177</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="GA1" t="s">
         <v>178</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GB1" t="s">
         <v>179</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GC1" t="s">
         <v>180</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GD1" t="s">
         <v>181</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GE1" t="s">
         <v>182</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GF1" t="s">
         <v>183</v>
       </c>
     </row>

--- a/ipa_2/myUtils/empty_session_df.xlsx
+++ b/ipa_2/myUtils/empty_session_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC4329-40F5-4E31-B25D-52208BAAD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B8897-9794-4491-9763-0B35177D9C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>subject_num</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>response_time_profiles</t>
-  </si>
-  <si>
-    <t>response_time_features</t>
   </si>
   <si>
     <t>identification_profiles_sides</t>
@@ -915,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GF1"/>
+  <dimension ref="A1:GE1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +931,7 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,361 +978,361 @@
         <v>127</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="R1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="T1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="W1" t="s">
         <v>184</v>
       </c>
       <c r="X1" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>120</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>121</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>122</v>
+      </c>
+      <c r="ED1" t="s">
         <v>129</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>75</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>76</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>77</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>78</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>79</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>80</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>45</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>118</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>119</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>120</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>121</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>122</v>
       </c>
       <c r="EE1" t="s">
         <v>130</v>
@@ -1495,9 +1492,6 @@
       </c>
       <c r="GE1" t="s">
         <v>182</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/empty_session_df.xlsx
+++ b/ipa_2/myUtils/empty_session_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B8897-9794-4491-9763-0B35177D9C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256A069-0735-488A-8A15-D0AA30E1152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1740" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>subject_num</t>
   </si>
@@ -69,6 +69,9 @@
     <t>trial_num</t>
   </si>
   <si>
+    <t>trial_profile</t>
+  </si>
+  <si>
     <t>subject_group</t>
   </si>
   <si>
@@ -153,6 +156,33 @@
     <t>max_amazing</t>
   </si>
   <si>
+    <t>profile_goodness</t>
+  </si>
+  <si>
+    <t>profile_age</t>
+  </si>
+  <si>
+    <t>profile_happiness</t>
+  </si>
+  <si>
+    <t>profile_normality</t>
+  </si>
+  <si>
+    <t>profile_appearnce</t>
+  </si>
+  <si>
+    <t>profile_interest</t>
+  </si>
+  <si>
+    <t>profile_sainity</t>
+  </si>
+  <si>
+    <t>profile_importance</t>
+  </si>
+  <si>
+    <t>profile_amazing</t>
+  </si>
+  <si>
     <t>ideal_goodness</t>
   </si>
   <si>
@@ -285,6 +315,33 @@
     <t>ideal_intelligence</t>
   </si>
   <si>
+    <t>profile_way_of_speech</t>
+  </si>
+  <si>
+    <t>profile_socio_economic</t>
+  </si>
+  <si>
+    <t>profile_ethnicity_skin_color</t>
+  </si>
+  <si>
+    <t>profile_personality</t>
+  </si>
+  <si>
+    <t>profile_dress_propeties</t>
+  </si>
+  <si>
+    <t>profile_political_affiliation</t>
+  </si>
+  <si>
+    <t>profile_hobbies</t>
+  </si>
+  <si>
+    <t>profile_body_size</t>
+  </si>
+  <si>
+    <t>profile_intelligence</t>
+  </si>
+  <si>
     <t>start_time</t>
   </si>
   <si>
@@ -405,6 +462,33 @@
     <t>ideal_c9</t>
   </si>
   <si>
+    <t>profile_c1</t>
+  </si>
+  <si>
+    <t>profile_c2</t>
+  </si>
+  <si>
+    <t>profile_c3</t>
+  </si>
+  <si>
+    <t>profile_c4</t>
+  </si>
+  <si>
+    <t>profile_c5</t>
+  </si>
+  <si>
+    <t>profile_c6</t>
+  </si>
+  <si>
+    <t>profile_c7</t>
+  </si>
+  <si>
+    <t>profile_c8</t>
+  </si>
+  <si>
+    <t>profile_c9</t>
+  </si>
+  <si>
     <t>trial_task</t>
   </si>
   <si>
@@ -420,181 +504,10 @@
     <t>response_time_profiles</t>
   </si>
   <si>
+    <t>response_time_features</t>
+  </si>
+  <si>
     <t>identification_profiles_sides</t>
-  </si>
-  <si>
-    <t>profile_left_way_of_speech</t>
-  </si>
-  <si>
-    <t>profile_left_socio_economic</t>
-  </si>
-  <si>
-    <t>profile_left_ethnicity_skin_color</t>
-  </si>
-  <si>
-    <t>profile_left_personality</t>
-  </si>
-  <si>
-    <t>profile_left_dress_propeties</t>
-  </si>
-  <si>
-    <t>profile_left_political_affiliation</t>
-  </si>
-  <si>
-    <t>profile_left_hobbies</t>
-  </si>
-  <si>
-    <t>profile_left_body_size</t>
-  </si>
-  <si>
-    <t>profile_left_intelligence</t>
-  </si>
-  <si>
-    <t>profile_left_goodness</t>
-  </si>
-  <si>
-    <t>profile_left_age</t>
-  </si>
-  <si>
-    <t>profile_left_happiness</t>
-  </si>
-  <si>
-    <t>profile_left_normality</t>
-  </si>
-  <si>
-    <t>profile_left_appearnce</t>
-  </si>
-  <si>
-    <t>profile_left_interest</t>
-  </si>
-  <si>
-    <t>profile_left_sainity</t>
-  </si>
-  <si>
-    <t>profile_left_importance</t>
-  </si>
-  <si>
-    <t>profile_left_amazing</t>
-  </si>
-  <si>
-    <t>profile_left_c1</t>
-  </si>
-  <si>
-    <t>profile_left_c2</t>
-  </si>
-  <si>
-    <t>profile_left_c3</t>
-  </si>
-  <si>
-    <t>profile_left_c4</t>
-  </si>
-  <si>
-    <t>profile_left_c5</t>
-  </si>
-  <si>
-    <t>profile_left_c6</t>
-  </si>
-  <si>
-    <t>profile_left_c7</t>
-  </si>
-  <si>
-    <t>profile_left_c8</t>
-  </si>
-  <si>
-    <t>profile_left_c9</t>
-  </si>
-  <si>
-    <t>profile_right_way_of_speech</t>
-  </si>
-  <si>
-    <t>profile_right_socio_economic</t>
-  </si>
-  <si>
-    <t>profile_right_ethnicity_skin_color</t>
-  </si>
-  <si>
-    <t>profile_right_personality</t>
-  </si>
-  <si>
-    <t>profile_right_dress_propeties</t>
-  </si>
-  <si>
-    <t>profile_right_political_affiliation</t>
-  </si>
-  <si>
-    <t>profile_right_hobbies</t>
-  </si>
-  <si>
-    <t>profile_right_body_size</t>
-  </si>
-  <si>
-    <t>profile_right_intelligence</t>
-  </si>
-  <si>
-    <t>profile_right_goodness</t>
-  </si>
-  <si>
-    <t>profile_right_age</t>
-  </si>
-  <si>
-    <t>profile_right_happiness</t>
-  </si>
-  <si>
-    <t>profile_right_normality</t>
-  </si>
-  <si>
-    <t>profile_right_appearnce</t>
-  </si>
-  <si>
-    <t>profile_right_interest</t>
-  </si>
-  <si>
-    <t>profile_right_sainity</t>
-  </si>
-  <si>
-    <t>profile_right_importance</t>
-  </si>
-  <si>
-    <t>profile_right_amazing</t>
-  </si>
-  <si>
-    <t>profile_right_c1</t>
-  </si>
-  <si>
-    <t>profile_right_c2</t>
-  </si>
-  <si>
-    <t>profile_right_c3</t>
-  </si>
-  <si>
-    <t>profile_right_c4</t>
-  </si>
-  <si>
-    <t>profile_right_c5</t>
-  </si>
-  <si>
-    <t>profile_right_c6</t>
-  </si>
-  <si>
-    <t>profile_right_c7</t>
-  </si>
-  <si>
-    <t>profile_right_c8</t>
-  </si>
-  <si>
-    <t>profile_right_c9</t>
-  </si>
-  <si>
-    <t>trial_profile_left</t>
-  </si>
-  <si>
-    <t>trial_profile_right</t>
-  </si>
-  <si>
-    <t>sets_order</t>
-  </si>
-  <si>
-    <t>trials_set</t>
   </si>
 </sst>
 </file>
@@ -912,43 +825,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GE1"/>
+  <dimension ref="A1:FB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -975,523 +888,436 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" t="s">
-        <v>183</v>
-      </c>
-      <c r="W1" t="s">
-        <v>184</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="CW1" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="CX1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>40</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>43</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>44</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>45</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>47</v>
+      </c>
+      <c r="ES1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>75</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>76</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>77</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>78</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>80</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>45</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>119</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>120</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>121</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>122</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EQ1" t="s">
+      <c r="ET1" t="s">
         <v>142</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="EU1" t="s">
         <v>143</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EV1" t="s">
         <v>144</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EW1" t="s">
         <v>145</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EX1" t="s">
         <v>146</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EY1" t="s">
         <v>147</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EZ1" t="s">
         <v>148</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FA1" t="s">
         <v>149</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FB1" t="s">
         <v>150</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>151</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>177</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>178</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>179</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/empty_session_df.xlsx
+++ b/ipa_2/myUtils/empty_session_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256A069-0735-488A-8A15-D0AA30E1152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873D14D-0818-4E62-8F06-75DFCBE19AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>subject_num</t>
   </si>
@@ -48,18 +48,6 @@
     <t>education</t>
   </si>
   <si>
-    <t>min_name</t>
-  </si>
-  <si>
-    <t>min_value</t>
-  </si>
-  <si>
-    <t>max_name</t>
-  </si>
-  <si>
-    <t>max_value</t>
-  </si>
-  <si>
     <t>response_value</t>
   </si>
   <si>
@@ -508,6 +496,9 @@
   </si>
   <si>
     <t>identification_profiles_sides</t>
+  </si>
+  <si>
+    <t>game_name</t>
   </si>
 </sst>
 </file>
@@ -825,43 +816,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FB1"/>
+  <dimension ref="A1:EY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -873,451 +861,442 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S1" t="s">
-        <v>151</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AE1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AF1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
-        <v>157</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AW1" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AX1" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AY1" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AZ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE1" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BF1" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BG1" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BH1" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="BI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN1" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BO1" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BP1" t="s">
         <v>112</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BQ1" t="s">
         <v>113</v>
       </c>
-      <c r="AY1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BR1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="CA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF1" t="s">
         <v>27</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CG1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CH1" t="s">
         <v>29</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CI1" t="s">
         <v>30</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BV1" t="s">
+      <c r="CJ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO1" t="s">
         <v>119</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CP1" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CQ1" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CR1" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" t="s">
+      <c r="CS1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CY1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CZ1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="DA1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="DB1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CN1" t="s">
+      <c r="DC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EH1" t="s">
         <v>36</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="EI1" t="s">
         <v>37</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="EJ1" t="s">
         <v>38</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="EK1" t="s">
         <v>39</v>
       </c>
-      <c r="CR1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>53</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>54</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>57</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX1" t="s">
+      <c r="EL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>43</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="EQ1" t="s">
         <v>138</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="ER1" t="s">
         <v>139</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="ES1" t="s">
         <v>140</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="ET1" t="s">
         <v>141</v>
       </c>
-      <c r="EB1" t="s">
-        <v>93</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>94</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>96</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>99</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>40</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>41</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>42</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>44</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>45</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>47</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>48</v>
-      </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>142</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>143</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>144</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>145</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>146</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
